--- a/admin_data_sample.xlsx
+++ b/admin_data_sample.xlsx
@@ -441,72 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ngay_bat_dau</t>
+          <t>start_date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>khu_vuc_lam_viec</t>
+          <t>work_area</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>phong_ban</t>
+          <t>department</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>don_vi_den</t>
+          <t>visiting_unit</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>muc_dich</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>van_ban_tham_chieu</t>
+          <t>reference_document</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>so_giay_to</t>
+          <t>id_number</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ten_khach</t>
+          <t>guest_name</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>so_dien_thoai</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>dia_chi_cong_ty</t>
+          <t>company_address</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>khach_dai_dien</t>
+          <t>representative_guest</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ten_xe</t>
+          <t>car_name</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>bien_so</t>
+          <t>license_plate</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ten_lai_xe</t>
+          <t>driver_name</t>
         </is>
       </c>
     </row>
@@ -523,27 +523,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Khu A</t>
+          <t>Area A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Phòng Kinh Doanh</t>
+          <t>Business Dept</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Công ty XYZ</t>
+          <t>XYZ Corp</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Thăm quan văn phòng</t>
+          <t>Office visit</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>VB12345</t>
+          <t>DOC12345</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>123 Đường ABC, Hà Nội</t>
+          <t>123 ABC Street, Hanoi</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Trần Thị B</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Adam Johnson</t>
         </is>
       </c>
     </row>
@@ -600,27 +600,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Khu B</t>
+          <t>Area B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Phòng IT</t>
+          <t>IT Dept</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Công ty ABC</t>
+          <t>ABC Company</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bảo trì hệ thống</t>
+          <t>System maintenance</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>VB67890</t>
+          <t>DOC67890</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Trần Thị D</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>456 Đường DEF, TP.HCM</t>
+          <t>456 DEF Road, HCMC</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Nguyễn Văn E</t>
+          <t>David Wilson</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Phạm Văn F</t>
+          <t>Paul Walker</t>
         </is>
       </c>
     </row>
@@ -677,27 +677,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Khu C</t>
+          <t>Area C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Phòng Marketing</t>
+          <t>Marketing Dept</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Công ty LMN</t>
+          <t>LMN Inc</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Họp mặt định kỳ</t>
+          <t>Periodic meeting</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>VB54321</t>
+          <t>DOC54321</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Lê Thị G</t>
+          <t>Emily Clark</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -717,12 +717,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>789 Đường GHI, Đà Nẵng</t>
+          <t>789 GHI Avenue, Da Nang</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Lê Văn H</t>
+          <t>Sophia Davis</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Trương Văn I</t>
+          <t>Luke Evans</t>
         </is>
       </c>
     </row>
@@ -754,27 +754,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Khu D</t>
+          <t>Area D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Phòng Nhân Sự</t>
+          <t>HR Dept</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Công ty OPQ</t>
+          <t>OPQ Ltd</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Đào tạo nhân viên</t>
+          <t>Employee training</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>VB98765</t>
+          <t>DOC98765</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Phạm Thị J</t>
+          <t>Peter Johnson</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>321 Đường JKL, Hải Phòng</t>
+          <t>321 JKL Blvd, Hai Phong</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Nguyễn Văn K</t>
+          <t>Daniel Martinez</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Đỗ Văn L</t>
+          <t>Mark Turner</t>
         </is>
       </c>
     </row>
@@ -831,27 +831,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Khu E</t>
+          <t>Area E</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Phòng Tài Chính</t>
+          <t>Finance Dept</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Công ty RST</t>
+          <t>RST Group</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kiểm toán tài chính</t>
+          <t>Financial audit</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>VB11223</t>
+          <t>DOC11223</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Vũ Thị M</t>
+          <t>Anna Lee</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>654 Đường MNO, Cần Thơ</t>
+          <t>654 MNO Way, Can Tho</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Trần Văn N</t>
+          <t>Laura White</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Hoàng Văn O</t>
+          <t>James Roberts</t>
         </is>
       </c>
     </row>
